--- a/tests/firewall_latency.xlsx
+++ b/tests/firewall_latency.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4084F89B-1A07-4851-A15C-9C3A7823C1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBE0373-C1C8-4A35-928B-BF3406EA8FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BA61DB66-0040-4E8D-82C8-E9AFBBAD4C1B}"/>
   </bookViews>
@@ -121,31 +121,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Firewall Relative Latency</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -395,7 +370,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C4C3-4CE7-9B04-942DC3CD1269}"/>
+              <c16:uniqueId val="{00000000-8715-4713-B5E1-54B21D1D9BA2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -613,7 +588,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C4C3-4CE7-9B04-942DC3CD1269}"/>
+              <c16:uniqueId val="{00000001-8715-4713-B5E1-54B21D1D9BA2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -626,7 +601,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>formatted ip address, python 'in' keyword</c:v>
+                  <c:v>formatted ip address, binary_search</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -647,191 +622,191 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>50.596166998729998</c:v>
+                  <c:v>41.950664999603703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.735519001435001</c:v>
+                  <c:v>39.541703998111103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.093021996261001</c:v>
+                  <c:v>39.130646997364202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.472357997321502</c:v>
+                  <c:v>38.755544999730702</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.391965999442597</c:v>
+                  <c:v>39.639037000597398</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.108024002227403</c:v>
+                  <c:v>41.950675004045401</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.318365002865903</c:v>
+                  <c:v>42.436625000846099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.730773999821302</c:v>
+                  <c:v>39.577636998728799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.076047994778399</c:v>
+                  <c:v>40.531960999942299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44.912024997756802</c:v>
+                  <c:v>40.5421790055697</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48.301506001735099</c:v>
+                  <c:v>48.724932996265103</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.201110995956697</c:v>
+                  <c:v>39.628367005207103</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.0031170047586</c:v>
+                  <c:v>41.034446003322898</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46.023684997635399</c:v>
+                  <c:v>39.722474997688501</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47.437389999686197</c:v>
+                  <c:v>41.467600996838797</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45.443264003552002</c:v>
+                  <c:v>39.8036740007228</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47.256902995286502</c:v>
+                  <c:v>41.359067996381697</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>49.952753004617897</c:v>
+                  <c:v>40.775501998723399</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47.440644004382101</c:v>
+                  <c:v>39.249647998076398</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45.373052998911497</c:v>
+                  <c:v>39.051642001140799</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49.2458919979981</c:v>
+                  <c:v>42.0000349986366</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>49.006221997842601</c:v>
+                  <c:v>41.426128998864399</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>47.682276002888102</c:v>
+                  <c:v>40.379275000304901</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>47.575041004165499</c:v>
+                  <c:v>41.674589992908203</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45.884391001891302</c:v>
+                  <c:v>41.320416996313703</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>49.362700003257402</c:v>
+                  <c:v>41.926416000933301</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>46.417783996730499</c:v>
+                  <c:v>44.574927000212398</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45.364953002717797</c:v>
+                  <c:v>39.290549997531301</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45.104724995326201</c:v>
+                  <c:v>39.752338998368899</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>52.018777998455299</c:v>
+                  <c:v>39.997482999751803</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>49.956265000218899</c:v>
+                  <c:v>40.830635996826402</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>47.873469004116401</c:v>
+                  <c:v>40.449102001730303</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>50.170921997050698</c:v>
+                  <c:v>41.730122000444602</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>44.015202998707501</c:v>
+                  <c:v>39.943032999872202</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>46.830843995849101</c:v>
+                  <c:v>39.852590001828503</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>46.102341002551803</c:v>
+                  <c:v>40.9703500044997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>46.943784000177402</c:v>
+                  <c:v>41.420675996050697</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>49.9798029995872</c:v>
+                  <c:v>40.905092995672</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>46.984489003079901</c:v>
+                  <c:v>41.113191000476903</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>44.588083001144597</c:v>
+                  <c:v>39.788752001186303</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>50.2149250023649</c:v>
+                  <c:v>41.695840998727299</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>48.387935996288398</c:v>
+                  <c:v>39.796523000404697</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>46.476859999529502</c:v>
+                  <c:v>39.3330400038394</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>47.025733998452701</c:v>
+                  <c:v>40.173145003791397</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>47.1982339950045</c:v>
+                  <c:v>40.413119000731903</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>54.344026997569003</c:v>
+                  <c:v>42.515610002737901</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>48.2445250017917</c:v>
+                  <c:v>41.606482998758999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>45.601436999277198</c:v>
+                  <c:v>39.372164996166198</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>46.484869002597399</c:v>
+                  <c:v>40.845397998054899</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>48.936454004433401</c:v>
+                  <c:v>40.157164999982299</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>49.072724999859901</c:v>
+                  <c:v>41.037430004507698</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>47.975106004741903</c:v>
+                  <c:v>39.712174002488602</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53.706288003013398</c:v>
+                  <c:v>40.839663000951901</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>45.815272002073399</c:v>
+                  <c:v>40.387150002061297</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>48.294093001459203</c:v>
+                  <c:v>39.319312003499299</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>45.119073001842402</c:v>
+                  <c:v>40.0482299955911</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>48.318529996322397</c:v>
+                  <c:v>39.861862998805002</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>48.885869997320697</c:v>
+                  <c:v>41.6856849988107</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>47.323221006081397</c:v>
+                  <c:v>41.680784001073299</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>47.486036994087002</c:v>
+                  <c:v>40.6624210008885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C4C3-4CE7-9B04-942DC3CD1269}"/>
+              <c16:uniqueId val="{00000002-8715-4713-B5E1-54B21D1D9BA2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -844,7 +819,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>formatted ip address, binary_search</c:v>
+                  <c:v>formatted ip address, python 'in' keyword</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -865,191 +840,191 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>41.950664999603703</c:v>
+                  <c:v>50.596166998729998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.541703998111103</c:v>
+                  <c:v>47.735519001435001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.130646997364202</c:v>
+                  <c:v>47.093021996261001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.755544999730702</c:v>
+                  <c:v>47.472357997321502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.639037000597398</c:v>
+                  <c:v>45.391965999442597</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.950675004045401</c:v>
+                  <c:v>47.108024002227403</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.436625000846099</c:v>
+                  <c:v>47.318365002865903</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.577636998728799</c:v>
+                  <c:v>45.730773999821302</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.531960999942299</c:v>
+                  <c:v>47.076047994778399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.5421790055697</c:v>
+                  <c:v>44.912024997756802</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48.724932996265103</c:v>
+                  <c:v>48.301506001735099</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.628367005207103</c:v>
+                  <c:v>47.201110995956697</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41.034446003322898</c:v>
+                  <c:v>49.0031170047586</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.722474997688501</c:v>
+                  <c:v>46.023684997635399</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41.467600996838797</c:v>
+                  <c:v>47.437389999686197</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39.8036740007228</c:v>
+                  <c:v>45.443264003552002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41.359067996381697</c:v>
+                  <c:v>47.256902995286502</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40.775501998723399</c:v>
+                  <c:v>49.952753004617897</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39.249647998076398</c:v>
+                  <c:v>47.440644004382101</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39.051642001140799</c:v>
+                  <c:v>45.373052998911497</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42.0000349986366</c:v>
+                  <c:v>49.2458919979981</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41.426128998864399</c:v>
+                  <c:v>49.006221997842601</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40.379275000304901</c:v>
+                  <c:v>47.682276002888102</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41.674589992908203</c:v>
+                  <c:v>47.575041004165499</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>41.320416996313703</c:v>
+                  <c:v>45.884391001891302</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41.926416000933301</c:v>
+                  <c:v>49.362700003257402</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44.574927000212398</c:v>
+                  <c:v>46.417783996730499</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>39.290549997531301</c:v>
+                  <c:v>45.364953002717797</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>39.752338998368899</c:v>
+                  <c:v>45.104724995326201</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>39.997482999751803</c:v>
+                  <c:v>52.018777998455299</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>40.830635996826402</c:v>
+                  <c:v>49.956265000218899</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>40.449102001730303</c:v>
+                  <c:v>47.873469004116401</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41.730122000444602</c:v>
+                  <c:v>50.170921997050698</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>39.943032999872202</c:v>
+                  <c:v>44.015202998707501</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>39.852590001828503</c:v>
+                  <c:v>46.830843995849101</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40.9703500044997</c:v>
+                  <c:v>46.102341002551803</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41.420675996050697</c:v>
+                  <c:v>46.943784000177402</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>40.905092995672</c:v>
+                  <c:v>49.9798029995872</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41.113191000476903</c:v>
+                  <c:v>46.984489003079901</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39.788752001186303</c:v>
+                  <c:v>44.588083001144597</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.695840998727299</c:v>
+                  <c:v>50.2149250023649</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>39.796523000404697</c:v>
+                  <c:v>48.387935996288398</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>39.3330400038394</c:v>
+                  <c:v>46.476859999529502</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>40.173145003791397</c:v>
+                  <c:v>47.025733998452701</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>40.413119000731903</c:v>
+                  <c:v>47.1982339950045</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42.515610002737901</c:v>
+                  <c:v>54.344026997569003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>41.606482998758999</c:v>
+                  <c:v>48.2445250017917</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>39.372164996166198</c:v>
+                  <c:v>45.601436999277198</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>40.845397998054899</c:v>
+                  <c:v>46.484869002597399</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>40.157164999982299</c:v>
+                  <c:v>48.936454004433401</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>41.037430004507698</c:v>
+                  <c:v>49.072724999859901</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>39.712174002488602</c:v>
+                  <c:v>47.975106004741903</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>40.839663000951901</c:v>
+                  <c:v>53.706288003013398</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>40.387150002061297</c:v>
+                  <c:v>45.815272002073399</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>39.319312003499299</c:v>
+                  <c:v>48.294093001459203</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>40.0482299955911</c:v>
+                  <c:v>45.119073001842402</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>39.861862998805002</c:v>
+                  <c:v>48.318529996322397</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>41.6856849988107</c:v>
+                  <c:v>48.885869997320697</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>41.680784001073299</c:v>
+                  <c:v>47.323221006081397</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>40.6624210008885</c:v>
+                  <c:v>47.486036994087002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C4C3-4CE7-9B04-942DC3CD1269}"/>
+              <c16:uniqueId val="{00000003-8715-4713-B5E1-54B21D1D9BA2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1061,11 +1036,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1406908255"/>
-        <c:axId val="1291539311"/>
+        <c:axId val="1833866496"/>
+        <c:axId val="1833865664"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1406908255"/>
+        <c:axId val="1833866496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,7 +1082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1291539311"/>
+        <c:crossAx val="1833865664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1115,7 +1090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1291539311"/>
+        <c:axId val="1833865664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,7 +1141,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1406908255"/>
+        <c:crossAx val="1833866496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1819,22 +1794,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5A5C1E-4E35-45C7-AB6D-362C485579EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7DA6DEA-2581-4BFF-B77C-5A2A6A575B63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2155,7 +2130,7 @@
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2174,10 +2149,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2188,10 +2163,10 @@
         <v>28.9425840019248</v>
       </c>
       <c r="C2">
+        <v>41.950664999603703</v>
+      </c>
+      <c r="D2">
         <v>50.596166998729998</v>
-      </c>
-      <c r="D2">
-        <v>41.950664999603703</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2202,10 +2177,10 @@
         <v>29.650937998667299</v>
       </c>
       <c r="C3">
+        <v>39.541703998111103</v>
+      </c>
+      <c r="D3">
         <v>47.735519001435001</v>
-      </c>
-      <c r="D3">
-        <v>39.541703998111103</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2216,10 +2191,10 @@
         <v>27.204553000046801</v>
       </c>
       <c r="C4">
+        <v>39.130646997364202</v>
+      </c>
+      <c r="D4">
         <v>47.093021996261001</v>
-      </c>
-      <c r="D4">
-        <v>39.130646997364202</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2230,10 +2205,10 @@
         <v>28.130785001849201</v>
       </c>
       <c r="C5">
+        <v>38.755544999730702</v>
+      </c>
+      <c r="D5">
         <v>47.472357997321502</v>
-      </c>
-      <c r="D5">
-        <v>38.755544999730702</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2244,10 +2219,10 @@
         <v>29.7920789998897</v>
       </c>
       <c r="C6">
+        <v>39.639037000597398</v>
+      </c>
+      <c r="D6">
         <v>45.391965999442597</v>
-      </c>
-      <c r="D6">
-        <v>39.639037000597398</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2258,10 +2233,10 @@
         <v>31.1629880015971</v>
       </c>
       <c r="C7">
+        <v>41.950675004045401</v>
+      </c>
+      <c r="D7">
         <v>47.108024002227403</v>
-      </c>
-      <c r="D7">
-        <v>41.950675004045401</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2272,10 +2247,10 @@
         <v>29.8905320014455</v>
       </c>
       <c r="C8">
+        <v>42.436625000846099</v>
+      </c>
+      <c r="D8">
         <v>47.318365002865903</v>
-      </c>
-      <c r="D8">
-        <v>42.436625000846099</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2286,10 +2261,10 @@
         <v>27.110130002256401</v>
       </c>
       <c r="C9">
+        <v>39.577636998728799</v>
+      </c>
+      <c r="D9">
         <v>45.730773999821302</v>
-      </c>
-      <c r="D9">
-        <v>39.577636998728799</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2300,10 +2275,10 @@
         <v>28.495577000285198</v>
       </c>
       <c r="C10">
+        <v>40.531960999942299</v>
+      </c>
+      <c r="D10">
         <v>47.076047994778399</v>
-      </c>
-      <c r="D10">
-        <v>40.531960999942299</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2314,10 +2289,10 @@
         <v>29.924106998805598</v>
       </c>
       <c r="C11">
+        <v>40.5421790055697</v>
+      </c>
+      <c r="D11">
         <v>44.912024997756802</v>
-      </c>
-      <c r="D11">
-        <v>40.5421790055697</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2328,10 +2303,10 @@
         <v>28.7224979983875</v>
       </c>
       <c r="C12">
+        <v>48.724932996265103</v>
+      </c>
+      <c r="D12">
         <v>48.301506001735099</v>
-      </c>
-      <c r="D12">
-        <v>48.724932996265103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2342,10 +2317,10 @@
         <v>30.168394001520898</v>
       </c>
       <c r="C13">
+        <v>39.628367005207103</v>
+      </c>
+      <c r="D13">
         <v>47.201110995956697</v>
-      </c>
-      <c r="D13">
-        <v>39.628367005207103</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2356,10 +2331,10 @@
         <v>28.356065002299101</v>
       </c>
       <c r="C14">
+        <v>41.034446003322898</v>
+      </c>
+      <c r="D14">
         <v>49.0031170047586</v>
-      </c>
-      <c r="D14">
-        <v>41.034446003322898</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2370,10 +2345,10 @@
         <v>29.527144000894602</v>
       </c>
       <c r="C15">
+        <v>39.722474997688501</v>
+      </c>
+      <c r="D15">
         <v>46.023684997635399</v>
-      </c>
-      <c r="D15">
-        <v>39.722474997688501</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2384,10 +2359,10 @@
         <v>28.818548998970002</v>
       </c>
       <c r="C16">
+        <v>41.467600996838797</v>
+      </c>
+      <c r="D16">
         <v>47.437389999686197</v>
-      </c>
-      <c r="D16">
-        <v>41.467600996838797</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2398,10 +2373,10 @@
         <v>30.676178001158402</v>
       </c>
       <c r="C17">
+        <v>39.8036740007228</v>
+      </c>
+      <c r="D17">
         <v>45.443264003552002</v>
-      </c>
-      <c r="D17">
-        <v>39.8036740007228</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2412,10 +2387,10 @@
         <v>28.711835999274602</v>
       </c>
       <c r="C18">
+        <v>41.359067996381697</v>
+      </c>
+      <c r="D18">
         <v>47.256902995286502</v>
-      </c>
-      <c r="D18">
-        <v>41.359067996381697</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2426,10 +2401,10 @@
         <v>29.605838000861599</v>
       </c>
       <c r="C19">
+        <v>40.775501998723399</v>
+      </c>
+      <c r="D19">
         <v>49.952753004617897</v>
-      </c>
-      <c r="D19">
-        <v>40.775501998723399</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2440,10 +2415,10 @@
         <v>29.646052000316502</v>
       </c>
       <c r="C20">
+        <v>39.249647998076398</v>
+      </c>
+      <c r="D20">
         <v>47.440644004382101</v>
-      </c>
-      <c r="D20">
-        <v>39.249647998076398</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2454,10 +2429,10 @@
         <v>28.201718996569902</v>
       </c>
       <c r="C21">
+        <v>39.051642001140799</v>
+      </c>
+      <c r="D21">
         <v>45.373052998911497</v>
-      </c>
-      <c r="D21">
-        <v>39.051642001140799</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2468,10 +2443,10 @@
         <v>29.644630001712301</v>
       </c>
       <c r="C22">
+        <v>42.0000349986366</v>
+      </c>
+      <c r="D22">
         <v>49.2458919979981</v>
-      </c>
-      <c r="D22">
-        <v>42.0000349986366</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2482,10 +2457,10 @@
         <v>29.612596001243201</v>
       </c>
       <c r="C23">
+        <v>41.426128998864399</v>
+      </c>
+      <c r="D23">
         <v>49.006221997842601</v>
-      </c>
-      <c r="D23">
-        <v>41.426128998864399</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2496,10 +2471,10 @@
         <v>29.6132760013279</v>
       </c>
       <c r="C24">
+        <v>40.379275000304901</v>
+      </c>
+      <c r="D24">
         <v>47.682276002888102</v>
-      </c>
-      <c r="D24">
-        <v>40.379275000304901</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2510,10 +2485,10 @@
         <v>28.898742999444899</v>
       </c>
       <c r="C25">
+        <v>41.674589992908203</v>
+      </c>
+      <c r="D25">
         <v>47.575041004165499</v>
-      </c>
-      <c r="D25">
-        <v>41.674589992908203</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2524,10 +2499,10 @@
         <v>29.044178001640802</v>
       </c>
       <c r="C26">
+        <v>41.320416996313703</v>
+      </c>
+      <c r="D26">
         <v>45.884391001891302</v>
-      </c>
-      <c r="D26">
-        <v>41.320416996313703</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2538,10 +2513,10 @@
         <v>27.715034997527201</v>
       </c>
       <c r="C27">
+        <v>41.926416000933301</v>
+      </c>
+      <c r="D27">
         <v>49.362700003257402</v>
-      </c>
-      <c r="D27">
-        <v>41.926416000933301</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2552,10 +2527,10 @@
         <v>30.940385000576399</v>
       </c>
       <c r="C28">
+        <v>44.574927000212398</v>
+      </c>
+      <c r="D28">
         <v>46.417783996730499</v>
-      </c>
-      <c r="D28">
-        <v>44.574927000212398</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2566,10 +2541,10 @@
         <v>30.7522069997503</v>
       </c>
       <c r="C29">
+        <v>39.290549997531301</v>
+      </c>
+      <c r="D29">
         <v>45.364953002717797</v>
-      </c>
-      <c r="D29">
-        <v>39.290549997531301</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2580,10 +2555,10 @@
         <v>29.205984999862199</v>
       </c>
       <c r="C30">
+        <v>39.752338998368899</v>
+      </c>
+      <c r="D30">
         <v>45.104724995326201</v>
-      </c>
-      <c r="D30">
-        <v>39.752338998368899</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2594,10 +2569,10 @@
         <v>32.466508000652503</v>
       </c>
       <c r="C31">
+        <v>39.997482999751803</v>
+      </c>
+      <c r="D31">
         <v>52.018777998455299</v>
-      </c>
-      <c r="D31">
-        <v>39.997482999751803</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2608,10 +2583,10 @@
         <v>28.879824003524799</v>
       </c>
       <c r="C32">
+        <v>40.830635996826402</v>
+      </c>
+      <c r="D32">
         <v>49.956265000218899</v>
-      </c>
-      <c r="D32">
-        <v>40.830635996826402</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2622,10 +2597,10 @@
         <v>29.894163999415401</v>
       </c>
       <c r="C33">
+        <v>40.449102001730303</v>
+      </c>
+      <c r="D33">
         <v>47.873469004116401</v>
-      </c>
-      <c r="D33">
-        <v>40.449102001730303</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2636,10 +2611,10 @@
         <v>27.927551000175299</v>
       </c>
       <c r="C34">
+        <v>41.730122000444602</v>
+      </c>
+      <c r="D34">
         <v>50.170921997050698</v>
-      </c>
-      <c r="D34">
-        <v>41.730122000444602</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2650,10 +2625,10 @@
         <v>30.178239001543201</v>
       </c>
       <c r="C35">
+        <v>39.943032999872202</v>
+      </c>
+      <c r="D35">
         <v>44.015202998707501</v>
-      </c>
-      <c r="D35">
-        <v>39.943032999872202</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2664,10 +2639,10 @@
         <v>30.042443999263899</v>
       </c>
       <c r="C36">
+        <v>39.852590001828503</v>
+      </c>
+      <c r="D36">
         <v>46.830843995849101</v>
-      </c>
-      <c r="D36">
-        <v>39.852590001828503</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2678,10 +2653,10 @@
         <v>30.9286350020556</v>
       </c>
       <c r="C37">
+        <v>40.9703500044997</v>
+      </c>
+      <c r="D37">
         <v>46.102341002551803</v>
-      </c>
-      <c r="D37">
-        <v>40.9703500044997</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2692,10 +2667,10 @@
         <v>28.201774999615701</v>
       </c>
       <c r="C38">
+        <v>41.420675996050697</v>
+      </c>
+      <c r="D38">
         <v>46.943784000177402</v>
-      </c>
-      <c r="D38">
-        <v>41.420675996050697</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2706,10 +2681,10 @@
         <v>28.342565998173001</v>
       </c>
       <c r="C39">
+        <v>40.905092995672</v>
+      </c>
+      <c r="D39">
         <v>49.9798029995872</v>
-      </c>
-      <c r="D39">
-        <v>40.905092995672</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2720,10 +2695,10 @@
         <v>29.213461999461199</v>
       </c>
       <c r="C40">
+        <v>41.113191000476903</v>
+      </c>
+      <c r="D40">
         <v>46.984489003079901</v>
-      </c>
-      <c r="D40">
-        <v>41.113191000476903</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2734,10 +2709,10 @@
         <v>26.975751999998401</v>
       </c>
       <c r="C41">
+        <v>39.788752001186303</v>
+      </c>
+      <c r="D41">
         <v>44.588083001144597</v>
-      </c>
-      <c r="D41">
-        <v>39.788752001186303</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2748,10 +2723,10 @@
         <v>28.8134590009576</v>
       </c>
       <c r="C42">
+        <v>41.695840998727299</v>
+      </c>
+      <c r="D42">
         <v>50.2149250023649</v>
-      </c>
-      <c r="D42">
-        <v>41.695840998727299</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2762,10 +2737,10 @@
         <v>31.928062999213498</v>
       </c>
       <c r="C43">
+        <v>39.796523000404697</v>
+      </c>
+      <c r="D43">
         <v>48.387935996288398</v>
-      </c>
-      <c r="D43">
-        <v>39.796523000404697</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2776,10 +2751,10 @@
         <v>28.163153998320901</v>
       </c>
       <c r="C44">
+        <v>39.3330400038394</v>
+      </c>
+      <c r="D44">
         <v>46.476859999529502</v>
-      </c>
-      <c r="D44">
-        <v>39.3330400038394</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2790,10 +2765,10 @@
         <v>28.086804999475099</v>
       </c>
       <c r="C45">
+        <v>40.173145003791397</v>
+      </c>
+      <c r="D45">
         <v>47.025733998452701</v>
-      </c>
-      <c r="D45">
-        <v>40.173145003791397</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2804,10 +2779,10 @@
         <v>28.3767879991501</v>
       </c>
       <c r="C46">
+        <v>40.413119000731903</v>
+      </c>
+      <c r="D46">
         <v>47.1982339950045</v>
-      </c>
-      <c r="D46">
-        <v>40.413119000731903</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2818,10 +2793,10 @@
         <v>30.092417000560001</v>
       </c>
       <c r="C47">
+        <v>42.515610002737901</v>
+      </c>
+      <c r="D47">
         <v>54.344026997569003</v>
-      </c>
-      <c r="D47">
-        <v>42.515610002737901</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2832,10 +2807,10 @@
         <v>29.5634949980012</v>
       </c>
       <c r="C48">
+        <v>41.606482998758999</v>
+      </c>
+      <c r="D48">
         <v>48.2445250017917</v>
-      </c>
-      <c r="D48">
-        <v>41.606482998758999</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2846,10 +2821,10 @@
         <v>31.465500000194801</v>
       </c>
       <c r="C49">
+        <v>39.372164996166198</v>
+      </c>
+      <c r="D49">
         <v>45.601436999277198</v>
-      </c>
-      <c r="D49">
-        <v>39.372164996166198</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2860,10 +2835,10 @@
         <v>28.991787999984801</v>
       </c>
       <c r="C50">
+        <v>40.845397998054899</v>
+      </c>
+      <c r="D50">
         <v>46.484869002597399</v>
-      </c>
-      <c r="D50">
-        <v>40.845397998054899</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2874,10 +2849,10 @@
         <v>29.161493999708899</v>
       </c>
       <c r="C51">
+        <v>40.157164999982299</v>
+      </c>
+      <c r="D51">
         <v>48.936454004433401</v>
-      </c>
-      <c r="D51">
-        <v>40.157164999982299</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2888,10 +2863,10 @@
         <v>27.685701999871501</v>
       </c>
       <c r="C52">
+        <v>41.037430004507698</v>
+      </c>
+      <c r="D52">
         <v>49.072724999859901</v>
-      </c>
-      <c r="D52">
-        <v>41.037430004507698</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2902,10 +2877,10 @@
         <v>29.928891002782599</v>
       </c>
       <c r="C53">
+        <v>39.712174002488602</v>
+      </c>
+      <c r="D53">
         <v>47.975106004741903</v>
-      </c>
-      <c r="D53">
-        <v>39.712174002488602</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2916,10 +2891,10 @@
         <v>29.8769679975521</v>
       </c>
       <c r="C54">
+        <v>40.839663000951901</v>
+      </c>
+      <c r="D54">
         <v>53.706288003013398</v>
-      </c>
-      <c r="D54">
-        <v>40.839663000951901</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2930,10 +2905,10 @@
         <v>29.098586997861201</v>
       </c>
       <c r="C55">
+        <v>40.387150002061297</v>
+      </c>
+      <c r="D55">
         <v>45.815272002073399</v>
-      </c>
-      <c r="D55">
-        <v>40.387150002061297</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2944,10 +2919,10 @@
         <v>29.501449000235802</v>
       </c>
       <c r="C56">
+        <v>39.319312003499299</v>
+      </c>
+      <c r="D56">
         <v>48.294093001459203</v>
-      </c>
-      <c r="D56">
-        <v>39.319312003499299</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2958,10 +2933,10 @@
         <v>31.412567001098001</v>
       </c>
       <c r="C57">
+        <v>40.0482299955911</v>
+      </c>
+      <c r="D57">
         <v>45.119073001842402</v>
-      </c>
-      <c r="D57">
-        <v>40.0482299955911</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2972,10 +2947,10 @@
         <v>28.572925999469501</v>
       </c>
       <c r="C58">
+        <v>39.861862998805002</v>
+      </c>
+      <c r="D58">
         <v>48.318529996322397</v>
-      </c>
-      <c r="D58">
-        <v>39.861862998805002</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2986,10 +2961,10 @@
         <v>29.221403998235399</v>
       </c>
       <c r="C59">
+        <v>41.6856849988107</v>
+      </c>
+      <c r="D59">
         <v>48.885869997320697</v>
-      </c>
-      <c r="D59">
-        <v>41.6856849988107</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3000,10 +2975,10 @@
         <v>29.887421998864699</v>
       </c>
       <c r="C60">
+        <v>41.680784001073299</v>
+      </c>
+      <c r="D60">
         <v>47.323221006081397</v>
-      </c>
-      <c r="D60">
-        <v>41.680784001073299</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3014,10 +2989,10 @@
         <v>32.694131998141501</v>
       </c>
       <c r="C61">
+        <v>40.6624210008885</v>
+      </c>
+      <c r="D61">
         <v>47.486036994087002</v>
-      </c>
-      <c r="D61">
-        <v>40.6624210008885</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3036,11 +3011,11 @@
       </c>
       <c r="C64">
         <f>AVERAGE(C2:C61)</f>
-        <v>47.664781250083834</v>
+        <v>40.75604896655323</v>
       </c>
       <c r="D64">
         <f>AVERAGE(D2:D61)</f>
-        <v>40.75604896655323</v>
+        <v>47.664781250083834</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3058,12 +3033,12 @@
         <v>1.2324939091706995</v>
       </c>
       <c r="C66">
-        <f t="shared" si="0"/>
+        <f>_xlfn.STDEV.S(C2:C61)</f>
+        <v>1.5029773301522185</v>
+      </c>
+      <c r="D66">
+        <f>_xlfn.STDEV.S(D2:D61)</f>
         <v>2.0410774924307202</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="0"/>
-        <v>1.5029773301522185</v>
       </c>
     </row>
   </sheetData>
